--- a/Test cases/API Test cases.xlsx
+++ b/Test cases/API Test cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarow\git\repository\API\RestAssuredAPIAutomation\Test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarow\git\Sarower-Rest-API-N\RestAssuredAPIAutomation\Test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>Test id</t>
   </si>
   <si>
-    <t>Test Name</t>
-  </si>
-  <si>
     <t>Steps</t>
   </si>
   <si>
@@ -107,6 +104,15 @@
   </si>
   <si>
     <t>id should the there</t>
+  </si>
+  <si>
+    <t>Test Name/steps</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -487,229 +493,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="104.59765625" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
     <col min="3" max="3" width="17.69921875" customWidth="1"/>
     <col min="4" max="4" width="24.296875" customWidth="1"/>
     <col min="5" max="5" width="34.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D15" s="3"/>
     </row>
   </sheetData>
